--- a/back-dashboards-pyhton/teep.xlsx
+++ b/back-dashboards-pyhton/teep.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dashboards_python_html\dashboards-python-png\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dashboards_python\back-dashboards-pyhton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD93CE94-4CF8-4F5D-AB83-0FDC49EE9952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB3B4E6-0873-4B65-9431-14E6DF7F3AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF5629E2-5761-4C17-B986-64CC32C564C7}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/back-dashboards-pyhton/teep.xlsx
+++ b/back-dashboards-pyhton/teep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dashboards_python\back-dashboards-pyhton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB3B4E6-0873-4B65-9431-14E6DF7F3AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E227A7C1-825F-45E0-A890-FCC58A438666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF5629E2-5761-4C17-B986-64CC32C564C7}"/>
   </bookViews>
@@ -34,102 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="6">
   <si>
     <t>linha</t>
   </si>
   <si>
     <t>Linha 1</t>
-  </si>
-  <si>
-    <t>2025-01-01</t>
-  </si>
-  <si>
-    <t>2025-01-02</t>
-  </si>
-  <si>
-    <t>2025-01-03</t>
-  </si>
-  <si>
-    <t>2025-01-04</t>
-  </si>
-  <si>
-    <t>2025-01-05</t>
-  </si>
-  <si>
-    <t>2025-01-06</t>
-  </si>
-  <si>
-    <t>2025-01-07</t>
-  </si>
-  <si>
-    <t>2025-01-08</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>2025-01-10</t>
-  </si>
-  <si>
-    <t>2025-01-11</t>
-  </si>
-  <si>
-    <t>2025-01-12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>2025-01-14</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>2025-01-16</t>
-  </si>
-  <si>
-    <t>2025-01-17</t>
-  </si>
-  <si>
-    <t>2025-01-18</t>
-  </si>
-  <si>
-    <t>2025-01-19</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>2025-01-21</t>
-  </si>
-  <si>
-    <t>2025-01-22</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>2025-01-26</t>
-  </si>
-  <si>
-    <t>2025-01-27</t>
-  </si>
-  <si>
-    <t>2025-01-28</t>
-  </si>
-  <si>
-    <t>2025-01-29</t>
-  </si>
-  <si>
-    <t>2025-01-30</t>
   </si>
   <si>
     <t>data</t>
@@ -140,12 +50,15 @@
   <si>
     <t>teep</t>
   </si>
+  <si>
+    <t>Linha 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +70,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,11 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,61 +438,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73F1879-BCB1-4262-BC3B-DF5969C7A128}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2" s="2">
+        <v>45658</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.4042</v>
+        <v>8.4041999999999994</v>
       </c>
       <c r="D2">
         <v>0.36370000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="A3" s="2">
+        <v>45659</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.41739999999999999</v>
+        <v>6.4173999999999998</v>
       </c>
       <c r="D3">
         <v>0.30370000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="A4" s="2">
+        <v>45660</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -585,8 +505,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="A5" s="2">
+        <v>45661</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -599,8 +519,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
+      <c r="A6" s="2">
+        <v>45662</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -613,8 +533,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
+      <c r="A7" s="2">
+        <v>45663</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -627,8 +547,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
+      <c r="A8" s="2">
+        <v>45664</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -641,8 +561,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
+      <c r="A9" s="2">
+        <v>45665</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -655,8 +575,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
+      <c r="A10" s="2">
+        <v>45658</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -669,8 +589,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
+      <c r="A11" s="2">
+        <v>45690</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -683,8 +603,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
+      <c r="A12" s="2">
+        <v>45719</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -697,8 +617,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
+      <c r="A13" s="2">
+        <v>45751</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -711,8 +631,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
+      <c r="A14" s="2">
+        <v>45782</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -725,8 +645,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
+      <c r="A15" s="2">
+        <v>45783</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -739,8 +659,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
+      <c r="A16" s="2">
+        <v>45815</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -753,8 +673,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
+      <c r="A17" s="2">
+        <v>45846</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -767,8 +687,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
+      <c r="A18" s="2">
+        <v>45878</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -781,8 +701,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
+      <c r="A19" s="2">
+        <v>45910</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -795,8 +715,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
+      <c r="A20" s="2">
+        <v>45949</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -809,25 +729,25 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
+      <c r="A21" s="2">
+        <v>45658</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.71250000000000002</v>
+        <v>9.7125000000000004</v>
       </c>
       <c r="D21">
         <v>0.57609999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>22</v>
+      <c r="A22" s="2">
+        <v>45690</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>0.48399999999999999</v>
@@ -837,11 +757,11 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>23</v>
+      <c r="A23" s="2">
+        <v>45719</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>0.71740000000000004</v>
@@ -851,11 +771,11 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>24</v>
+      <c r="A24" s="2">
+        <v>45751</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>0.39929999999999999</v>
@@ -865,11 +785,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>25</v>
+      <c r="A25" s="2">
+        <v>45782</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>0.70830000000000004</v>
@@ -879,11 +799,11 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>26</v>
+      <c r="A26" s="2">
+        <v>45783</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>0.73399999999999999</v>
@@ -893,11 +813,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>27</v>
+      <c r="A27" s="2">
+        <v>45815</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>0.76319999999999999</v>
@@ -907,11 +827,11 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>28</v>
+      <c r="A28" s="2">
+        <v>45846</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>0.57430000000000003</v>
@@ -921,11 +841,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>29</v>
+      <c r="A29" s="2">
+        <v>45878</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>0.7722</v>
@@ -935,11 +855,11 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>30</v>
+      <c r="A30" s="2">
+        <v>45910</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>0.7833</v>
@@ -949,11 +869,11 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>31</v>
+      <c r="A31" s="2">
+        <v>45949</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>0.59240000000000004</v>
@@ -963,6 +883,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>